--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2021.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2021.xlsx
@@ -384,7 +384,7 @@
         <v>220.579</v>
       </c>
       <c r="C2">
-        <v>157.1604363332969</v>
+        <v>162.4537820440009</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>15.605</v>
       </c>
       <c r="C3">
-        <v>11.1184138516409</v>
+        <v>11.49289492107877</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>12.22</v>
       </c>
       <c r="C4">
-        <v>8.706633596094314</v>
+        <v>8.999883110258414</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.766</v>
       </c>
       <c r="C5">
-        <v>14.0830867152537</v>
+        <v>14.55742140403992</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>48.546</v>
       </c>
       <c r="C6">
-        <v>34.588562565957</v>
+        <v>35.75354545585965</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.153</v>
       </c>
       <c r="C7">
-        <v>10.79636815725181</v>
+        <v>11.16000235431635</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.782</v>
       </c>
       <c r="C8">
-        <v>8.394562768345597</v>
+        <v>8.677301375209872</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>36.02</v>
       </c>
       <c r="C9">
-        <v>25.66390688472317</v>
+        <v>26.528297023855</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>56.456</v>
       </c>
       <c r="C10">
-        <v>40.22436221776601</v>
+        <v>41.57916537420206</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>11.86</v>
       </c>
       <c r="C11">
-        <v>8.450137025341943</v>
+        <v>8.734747437615777</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>4.38</v>
       </c>
       <c r="C12">
-        <v>3.12070827748716</v>
+        <v>3.225817350485422</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>8.685</v>
       </c>
       <c r="C13">
-        <v>6.18797976940091</v>
+        <v>6.396398102503628</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.153</v>
       </c>
       <c r="C14">
-        <v>1.533991991194031</v>
+        <v>1.585658619998884</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.191</v>
       </c>
       <c r="C15">
-        <v>1.561066629217892</v>
+        <v>1.613645163222274</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>30.148</v>
       </c>
       <c r="C16">
-        <v>21.48016281956231</v>
+        <v>22.20363960786176</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>24.736</v>
       </c>
       <c r="C17">
-        <v>17.62416437258502</v>
+        <v>18.21776666246744</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>13.086</v>
       </c>
       <c r="C18">
-        <v>9.323650346848623</v>
+        <v>9.63768170055987</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.47</v>
       </c>
       <c r="C19">
-        <v>1.047360997238841</v>
+        <v>1.082637329957436</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>28.803</v>
       </c>
       <c r="C20">
-        <v>20.52186313161248</v>
+        <v>21.21306327534968</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>86.8</v>
       </c>
       <c r="C21">
-        <v>61.84417317029348</v>
+        <v>63.92715662605813</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="C22">
-        <v>6.334040316634899</v>
+        <v>6.547378138314019</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.26</v>
       </c>
       <c r="C23">
-        <v>0.1852475233211556</v>
+        <v>0.1914868746863492</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>2.779</v>
       </c>
       <c r="C24">
-        <v>1.980011028113428</v>
+        <v>2.046700095205248</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>34.26</v>
       </c>
       <c r="C25">
-        <v>24.40992364993381</v>
+        <v>25.23207817982432</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>8.659000000000001</v>
       </c>
       <c r="C26">
-        <v>6.169455017068794</v>
+        <v>6.377249415034993</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.743</v>
       </c>
       <c r="C27">
-        <v>0.5293804224139178</v>
+        <v>0.5472105688152212</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>12.964</v>
       </c>
       <c r="C28">
-        <v>9.236726508982544</v>
+        <v>9.547830167053199</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>26.672</v>
       </c>
       <c r="C29">
-        <v>19.00354593085332</v>
+        <v>19.64360739090118</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.232</v>
       </c>
       <c r="C30">
-        <v>8.71518348178606</v>
+        <v>9.008720966013168</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>6.63</v>
       </c>
       <c r="C31">
-        <v>4.723811844689467</v>
+        <v>4.882915304501905</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.643</v>
       </c>
       <c r="C32">
-        <v>3.308093272231252</v>
+        <v>3.41951368911046</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.437</v>
       </c>
       <c r="C33">
-        <v>1.736339285898678</v>
+        <v>1.794821206194743</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.337</v>
       </c>
       <c r="C34">
-        <v>4.515052135716012</v>
+        <v>4.667124326489981</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.148</v>
       </c>
       <c r="C35">
-        <v>2.242920013134607</v>
+        <v>2.318464159663951</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>109.883</v>
       </c>
       <c r="C36">
-        <v>78.29059078884053</v>
+        <v>80.92750865830813</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>6.497</v>
       </c>
       <c r="C37">
-        <v>4.629050611605954</v>
+        <v>4.784962403220042</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>35.138</v>
       </c>
       <c r="C38">
-        <v>25.03549028637987</v>
+        <v>25.87871462588054</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.402</v>
       </c>
       <c r="C39">
-        <v>4.561364016546301</v>
+        <v>4.714996045161569</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.48</v>
       </c>
       <c r="C40">
-        <v>3.191957324918374</v>
+        <v>3.29946614844171</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>16.261</v>
       </c>
       <c r="C41">
-        <v>11.58580760278966</v>
+        <v>11.97603103567202</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.051</v>
       </c>
       <c r="C42">
-        <v>0.7488274885020558</v>
+        <v>0.7740488665205886</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.629</v>
       </c>
       <c r="C43">
-        <v>5.435589828527292</v>
+        <v>5.618666796085224</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>31.566</v>
       </c>
       <c r="C44">
-        <v>310</v>
+        <v>286.76</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2021.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2021.xlsx
@@ -384,7 +384,7 @@
         <v>220.579</v>
       </c>
       <c r="C2">
-        <v>162.4537820440009</v>
+        <v>161.3069735234315</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>15.605</v>
       </c>
       <c r="C3">
-        <v>11.49289492107877</v>
+        <v>11.41176323146423</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>12.22</v>
       </c>
       <c r="C4">
-        <v>8.999883110258414</v>
+        <v>8.936350316468626</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.766</v>
       </c>
       <c r="C5">
-        <v>14.55742140403992</v>
+        <v>14.45465633022249</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>48.546</v>
       </c>
       <c r="C6">
-        <v>35.75354545585965</v>
+        <v>35.50115077440965</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.153</v>
       </c>
       <c r="C7">
-        <v>11.16000235431635</v>
+        <v>11.08122065020042</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.782</v>
       </c>
       <c r="C8">
-        <v>8.677301375209872</v>
+        <v>8.616045779757231</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>36.02</v>
       </c>
       <c r="C9">
-        <v>26.528297023855</v>
+        <v>26.34102605558101</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>56.456</v>
       </c>
       <c r="C10">
-        <v>41.57916537420206</v>
+        <v>41.28564594652642</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>11.86</v>
       </c>
       <c r="C11">
-        <v>8.734747437615777</v>
+        <v>8.673086313692135</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>4.38</v>
       </c>
       <c r="C12">
-        <v>3.225817350485422</v>
+        <v>3.203045367113959</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>8.685</v>
       </c>
       <c r="C13">
-        <v>6.396398102503628</v>
+        <v>6.351244066982817</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.153</v>
       </c>
       <c r="C14">
-        <v>1.585658619998884</v>
+        <v>1.574464994382729</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.191</v>
       </c>
       <c r="C15">
-        <v>1.613645163222274</v>
+        <v>1.602253972453581</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>30.148</v>
       </c>
       <c r="C16">
-        <v>22.20363960786176</v>
+        <v>22.04689765473782</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>24.736</v>
       </c>
       <c r="C17">
-        <v>18.21776666246744</v>
+        <v>18.08916214633125</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>13.086</v>
       </c>
       <c r="C18">
-        <v>9.63768170055987</v>
+        <v>9.569646500925405</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.47</v>
       </c>
       <c r="C19">
-        <v>1.082637329957436</v>
+        <v>1.074994678004</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>28.803</v>
       </c>
       <c r="C20">
-        <v>21.21306327534968</v>
+        <v>21.06331408880899</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>86.8</v>
       </c>
       <c r="C21">
-        <v>63.92715662605813</v>
+        <v>63.47587622499809</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="C22">
-        <v>6.547378138314019</v>
+        <v>6.501158290786097</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.26</v>
       </c>
       <c r="C23">
-        <v>0.1914868746863492</v>
+        <v>0.1901351131163538</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>2.779</v>
       </c>
       <c r="C24">
-        <v>2.046700095205248</v>
+        <v>2.032251843655181</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>34.26</v>
       </c>
       <c r="C25">
-        <v>25.23207817982432</v>
+        <v>25.05395759756261</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>8.659000000000001</v>
       </c>
       <c r="C26">
-        <v>6.377249415034993</v>
+        <v>6.332230555671181</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.743</v>
       </c>
       <c r="C27">
-        <v>0.5472105688152212</v>
+        <v>0.5433476501748109</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>12.964</v>
       </c>
       <c r="C28">
-        <v>9.547830167053199</v>
+        <v>9.48042925554004</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>26.672</v>
       </c>
       <c r="C29">
-        <v>19.64360739090118</v>
+        <v>19.50493745015149</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.232</v>
       </c>
       <c r="C30">
-        <v>9.008720966013168</v>
+        <v>8.945125783227843</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>6.63</v>
       </c>
       <c r="C31">
-        <v>4.882915304501905</v>
+        <v>4.84844538446702</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.643</v>
       </c>
       <c r="C32">
-        <v>3.41951368911046</v>
+        <v>3.395374346920117</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.437</v>
       </c>
       <c r="C33">
-        <v>1.794821206194743</v>
+        <v>1.782151041017516</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.337</v>
       </c>
       <c r="C34">
-        <v>4.667124326489981</v>
+        <v>4.634177737762822</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.148</v>
       </c>
       <c r="C35">
-        <v>2.318464159663951</v>
+        <v>2.302097446501083</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>109.883</v>
       </c>
       <c r="C36">
-        <v>80.92750865830813</v>
+        <v>80.3562178252473</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>6.497</v>
       </c>
       <c r="C37">
-        <v>4.784962403220042</v>
+        <v>4.75118396121904</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>35.138</v>
       </c>
       <c r="C38">
-        <v>25.87871462588054</v>
+        <v>25.69602924877861</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.402</v>
       </c>
       <c r="C39">
-        <v>4.714996045161569</v>
+        <v>4.68171151604191</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.48</v>
       </c>
       <c r="C40">
-        <v>3.29946614844171</v>
+        <v>3.276174256774096</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>16.261</v>
       </c>
       <c r="C41">
-        <v>11.97603103567202</v>
+        <v>11.89148874763472</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.051</v>
       </c>
       <c r="C42">
-        <v>0.7740488665205886</v>
+        <v>0.7685846303280299</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.629</v>
       </c>
       <c r="C43">
-        <v>5.618666796085224</v>
+        <v>5.579002992171779</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>31.566</v>
       </c>
       <c r="C44">
-        <v>286.76</v>
+        <v>291.794968708758</v>
       </c>
     </row>
   </sheetData>

--- a/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2021.xlsx
+++ b/DATOS/PONDERACIONES/IPC_INQUILINOS/alquiler_ajustado_ponderaciones_IPC_2021.xlsx
@@ -384,7 +384,7 @@
         <v>220.579</v>
       </c>
       <c r="C2">
-        <v>162.4537820440009</v>
+        <v>160.7637379315472</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>15.605</v>
       </c>
       <c r="C3">
-        <v>11.49289492107877</v>
+        <v>11.37333168806548</v>
       </c>
     </row>
     <row r="4">
@@ -410,7 +410,7 @@
         <v>12.22</v>
       </c>
       <c r="C4">
-        <v>8.999883110258414</v>
+        <v>8.906255253326504</v>
       </c>
     </row>
     <row r="5">
@@ -423,7 +423,7 @@
         <v>19.766</v>
       </c>
       <c r="C5">
-        <v>14.55742140403992</v>
+        <v>14.40597719617444</v>
       </c>
     </row>
     <row r="6">
@@ -436,7 +436,7 @@
         <v>48.546</v>
       </c>
       <c r="C6">
-        <v>35.75354545585965</v>
+        <v>35.38159308739677</v>
       </c>
     </row>
     <row r="7">
@@ -449,7 +449,7 @@
         <v>15.153</v>
       </c>
       <c r="C7">
-        <v>11.16000235431635</v>
+        <v>11.04390227934996</v>
       </c>
     </row>
     <row r="8">
@@ -462,7 +462,7 @@
         <v>11.782</v>
       </c>
       <c r="C8">
-        <v>8.677301375209872</v>
+        <v>8.587029410367665</v>
       </c>
     </row>
     <row r="9">
@@ -475,7 +475,7 @@
         <v>36.02</v>
       </c>
       <c r="C9">
-        <v>26.528297023855</v>
+        <v>26.25231703967436</v>
       </c>
     </row>
     <row r="10">
@@ -488,7 +488,7 @@
         <v>56.456</v>
       </c>
       <c r="C10">
-        <v>41.57916537420206</v>
+        <v>41.14660773991826</v>
       </c>
     </row>
     <row r="11">
@@ -501,7 +501,7 @@
         <v>11.86</v>
       </c>
       <c r="C11">
-        <v>8.734747437615777</v>
+        <v>8.643877848154855</v>
       </c>
     </row>
     <row r="12">
@@ -514,7 +514,7 @@
         <v>4.38</v>
       </c>
       <c r="C12">
-        <v>3.225817350485422</v>
+        <v>3.192258429588387</v>
       </c>
     </row>
     <row r="13">
@@ -527,7 +527,7 @@
         <v>8.685</v>
       </c>
       <c r="C13">
-        <v>6.396398102503628</v>
+        <v>6.329854899766014</v>
       </c>
     </row>
     <row r="14">
@@ -540,7 +540,7 @@
         <v>2.153</v>
       </c>
       <c r="C14">
-        <v>1.585658619998884</v>
+        <v>1.569162648151552</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>2.191</v>
       </c>
       <c r="C15">
-        <v>1.613645163222274</v>
+        <v>1.59685804091967</v>
       </c>
     </row>
     <row r="16">
@@ -566,7 +566,7 @@
         <v>30.148</v>
       </c>
       <c r="C16">
-        <v>22.20363960786176</v>
+        <v>21.97265003087459</v>
       </c>
     </row>
     <row r="17">
@@ -579,7 +579,7 @@
         <v>24.736</v>
       </c>
       <c r="C17">
-        <v>18.21776666246744</v>
+        <v>18.02824303979414</v>
       </c>
     </row>
     <row r="18">
@@ -592,7 +592,7 @@
         <v>13.086</v>
       </c>
       <c r="C18">
-        <v>9.63768170055987</v>
+        <v>9.537418677989413</v>
       </c>
     </row>
     <row r="19">
@@ -605,7 +605,7 @@
         <v>1.47</v>
       </c>
       <c r="C19">
-        <v>1.082637329957436</v>
+        <v>1.071374404450897</v>
       </c>
     </row>
     <row r="20">
@@ -618,7 +618,7 @@
         <v>28.803</v>
       </c>
       <c r="C20">
-        <v>21.21306327534968</v>
+        <v>20.99237889210829</v>
       </c>
     </row>
     <row r="21">
@@ -631,7 +631,7 @@
         <v>86.8</v>
       </c>
       <c r="C21">
-        <v>63.92715662605813</v>
+        <v>63.26210769138629</v>
       </c>
     </row>
     <row r="22">
@@ -644,7 +644,7 @@
         <v>8.890000000000001</v>
       </c>
       <c r="C22">
-        <v>6.547378138314019</v>
+        <v>6.479264255488759</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         <v>0.26</v>
       </c>
       <c r="C23">
-        <v>0.1914868746863492</v>
+        <v>0.1894947926239682</v>
       </c>
     </row>
     <row r="24">
@@ -670,7 +670,7 @@
         <v>2.779</v>
       </c>
       <c r="C24">
-        <v>2.046700095205248</v>
+        <v>2.025407802700029</v>
       </c>
     </row>
     <row r="25">
@@ -683,7 +683,7 @@
         <v>34.26</v>
       </c>
       <c r="C25">
-        <v>25.23207817982432</v>
+        <v>24.96958305883519</v>
       </c>
     </row>
     <row r="26">
@@ -696,7 +696,7 @@
         <v>8.659000000000001</v>
       </c>
       <c r="C26">
-        <v>6.377249415034993</v>
+        <v>6.310905420503617</v>
       </c>
     </row>
     <row r="27">
@@ -709,7 +709,7 @@
         <v>0.743</v>
       </c>
       <c r="C27">
-        <v>0.5472105688152212</v>
+        <v>0.5415178112292629</v>
       </c>
     </row>
     <row r="28">
@@ -722,7 +722,7 @@
         <v>12.964</v>
       </c>
       <c r="C28">
-        <v>9.547830167053199</v>
+        <v>9.448501890681245</v>
       </c>
     </row>
     <row r="29">
@@ -735,7 +735,7 @@
         <v>26.672</v>
       </c>
       <c r="C29">
-        <v>19.64360739090118</v>
+        <v>19.43925041871723</v>
       </c>
     </row>
     <row r="30">
@@ -748,7 +748,7 @@
         <v>12.232</v>
       </c>
       <c r="C30">
-        <v>9.008720966013168</v>
+        <v>8.915001166832225</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +761,7 @@
         <v>6.63</v>
       </c>
       <c r="C31">
-        <v>4.882915304501905</v>
+        <v>4.832117211911188</v>
       </c>
     </row>
     <row r="32">
@@ -774,7 +774,7 @@
         <v>4.643</v>
       </c>
       <c r="C32">
-        <v>3.41951368911046</v>
+        <v>3.383939700588785</v>
       </c>
     </row>
     <row r="33">
@@ -787,7 +787,7 @@
         <v>2.437</v>
       </c>
       <c r="C33">
-        <v>1.794821206194743</v>
+        <v>1.776149267786963</v>
       </c>
     </row>
     <row r="34">
@@ -800,7 +800,7 @@
         <v>6.337</v>
       </c>
       <c r="C34">
-        <v>4.667124326489981</v>
+        <v>4.618571157146485</v>
       </c>
     </row>
     <row r="35">
@@ -813,7 +813,7 @@
         <v>3.148</v>
       </c>
       <c r="C35">
-        <v>2.318464159663951</v>
+        <v>2.294344643000969</v>
       </c>
     </row>
     <row r="36">
@@ -826,7 +826,7 @@
         <v>109.883</v>
       </c>
       <c r="C36">
-        <v>80.92750865830813</v>
+        <v>80.08560114576728</v>
       </c>
     </row>
     <row r="37">
@@ -839,7 +839,7 @@
         <v>6.497</v>
       </c>
       <c r="C37">
-        <v>4.784962403220042</v>
+        <v>4.735183337222773</v>
       </c>
     </row>
     <row r="38">
@@ -852,7 +852,7 @@
         <v>35.138</v>
       </c>
       <c r="C38">
-        <v>25.87871462588054</v>
+        <v>25.60949239700382</v>
       </c>
     </row>
     <row r="39">
@@ -865,7 +865,7 @@
         <v>6.402</v>
       </c>
       <c r="C39">
-        <v>4.714996045161569</v>
+        <v>4.665944855302477</v>
       </c>
     </row>
     <row r="40">
@@ -878,7 +878,7 @@
         <v>4.48</v>
       </c>
       <c r="C40">
-        <v>3.29946614844171</v>
+        <v>3.265141042136067</v>
       </c>
     </row>
     <row r="41">
@@ -891,7 +891,7 @@
         <v>16.261</v>
       </c>
       <c r="C41">
-        <v>11.97603103567202</v>
+        <v>11.85144162637825</v>
       </c>
     </row>
     <row r="42">
@@ -904,7 +904,7 @@
         <v>1.051</v>
       </c>
       <c r="C42">
-        <v>0.7740488665205886</v>
+        <v>0.7659962578761175</v>
       </c>
     </row>
     <row r="43">
@@ -917,7 +917,7 @@
         <v>7.629</v>
       </c>
       <c r="C43">
-        <v>5.618666796085224</v>
+        <v>5.560214511262512</v>
       </c>
     </row>
     <row r="44">
@@ -930,7 +930,7 @@
         <v>31.566</v>
       </c>
       <c r="C44">
-        <v>286.76</v>
+        <v>294.18</v>
       </c>
     </row>
   </sheetData>
